--- a/biology/Médecine/Unité_fonctionnelle_vertébrale/Unité_fonctionnelle_vertébrale.xlsx
+++ b/biology/Médecine/Unité_fonctionnelle_vertébrale/Unité_fonctionnelle_vertébrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_fonctionnelle_vert%C3%A9brale</t>
+          <t>Unité_fonctionnelle_vertébrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité fonctionnelle vertébrale, concept créé en 1966 par le Dr Jérome d'Ornano, constitue une tentative d'explication de la dysfonction mécanique segmentaire vertébrale et de son traitement par manipulation vertébrale.
 Il s'agit de l'ensemble des structures situées entre deux vertèbres contigües (« segment mobile » de Junghanns) qui forment un tout indissociable dans la fonction, et qui comprend le disque intervertébral, les articulations interapophysaires, et le système ligamentaire et musculaire d'union.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_fonctionnelle_vert%C3%A9brale</t>
+          <t>Unité_fonctionnelle_vertébrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité fonctionnelle vertébrale sur Google books.
  Portail de la médecine   Portail de l’anatomie                    </t>
